--- a/teacher_timetables/Karen JONES_CampB_timetable.xlsx
+++ b/teacher_timetables/Karen JONES_CampB_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/teacher_timetables/Karen JONES_CampB_timetable.xlsx
+++ b/teacher_timetables/Karen JONES_CampB_timetable.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Full Timetable" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -510,7 +510,12 @@
 (Room UG24)</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Warm Up Workshop
+(Room G19)</t>
+        </is>
+      </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
           <t>Yoga Class
@@ -582,7 +587,7 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>Issac CHAN Private Lesson with Karen JONE &amp; pianisit</t>
+          <t>Issac CHAN Private Lesson with Karen JONES &amp; pianisit</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
@@ -649,7 +654,7 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Kaylee WONG Private Lesson with Karen JONE &amp; pianisit</t>
+          <t>Kaylee WONG Private Lesson with Karen JONES &amp; pianisit</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
@@ -659,7 +664,7 @@
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>Victor CHEN Private Lesson with Karen JONE &amp; pianisit</t>
+          <t>Victor CHEN Private Lesson with Karen JONES &amp; pianisit</t>
         </is>
       </c>
       <c r="F11" s="1" t="n"/>
@@ -793,7 +798,7 @@
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Marquis YEUNG Private Lesson with Karen JONE &amp; pianisit</t>
+          <t>Marquis YEUNG Private Lesson with Karen JONES &amp; pianisit</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">

--- a/teacher_timetables/Karen JONES_CampB_timetable.xlsx
+++ b/teacher_timetables/Karen JONES_CampB_timetable.xlsx
@@ -707,11 +707,7 @@
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
       <c r="F14" s="1" t="n"/>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>Lunch</t>
-        </is>
-      </c>
+      <c r="G14" s="1" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
@@ -744,7 +740,11 @@
           <t>Lunch</t>
         </is>
       </c>
-      <c r="G15" s="1" t="n"/>
+      <c r="G15" s="1" t="inlineStr">
+        <is>
+          <t>Lunch</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="1" t="inlineStr">
@@ -830,11 +830,7 @@
       <c r="D20" s="1" t="n"/>
       <c r="E20" s="1" t="n"/>
       <c r="F20" s="1" t="n"/>
-      <c r="G20" s="1" t="inlineStr">
-        <is>
-          <t>Lina Summer Camp of Music Students &amp; Friends Concert</t>
-        </is>
-      </c>
+      <c r="G20" s="1" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
@@ -847,7 +843,11 @@
       <c r="D21" s="1" t="n"/>
       <c r="E21" s="1" t="n"/>
       <c r="F21" s="1" t="n"/>
-      <c r="G21" s="1" t="n"/>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>Lina Summer Camp of Music Students &amp; Friends Concert</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
@@ -926,7 +926,7 @@
       <c r="F25" s="1" t="n"/>
       <c r="G25" s="1" t="n"/>
     </row>
-    <row r="26" ht="30" customHeight="1">
+    <row r="26" ht="15" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>15:45</t>
@@ -937,45 +937,45 @@
       <c r="D26" s="1" t="n"/>
       <c r="E26" s="1" t="n"/>
       <c r="F26" s="1" t="n"/>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" s="1" t="n"/>
+    </row>
+    <row r="27" ht="30" customHeight="1">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Break</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>Break</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>Break</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>Break</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>Break</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
         <is>
           <t>After concert refreshment 
 (Maritime Museum)</t>
         </is>
       </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>Break</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>Break</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>Break</t>
-        </is>
-      </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>Break</t>
-        </is>
-      </c>
-      <c r="F27" s="1" t="inlineStr">
-        <is>
-          <t>Break</t>
-        </is>
-      </c>
-      <c r="G27" s="1" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
@@ -1001,11 +1001,7 @@
       <c r="D29" s="1" t="n"/>
       <c r="E29" s="1" t="n"/>
       <c r="F29" s="1" t="n"/>
-      <c r="G29" s="1" t="inlineStr">
-        <is>
-          <t>Rehearsal for Faculty Concert</t>
-        </is>
-      </c>
+      <c r="G29" s="1" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
@@ -1018,7 +1014,11 @@
       <c r="D30" s="1" t="n"/>
       <c r="E30" s="1" t="n"/>
       <c r="F30" s="1" t="n"/>
-      <c r="G30" s="1" t="n"/>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>Rehearsal for Faculty Concert</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
@@ -1064,11 +1064,7 @@
           <t>Faculty Rehearsal</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
-        <is>
-          <t>Break</t>
-        </is>
-      </c>
+      <c r="G32" s="1" t="n"/>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
@@ -1081,7 +1077,11 @@
       <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="n"/>
       <c r="F33" s="1" t="n"/>
-      <c r="G33" s="1" t="n"/>
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <t>Break</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
@@ -1120,11 +1120,7 @@
       <c r="D36" s="1" t="n"/>
       <c r="E36" s="1" t="n"/>
       <c r="F36" s="1" t="n"/>
-      <c r="G36" s="1" t="inlineStr">
-        <is>
-          <t>Lina Summer Camp of Music Faculty Concert</t>
-        </is>
-      </c>
+      <c r="G36" s="1" t="n"/>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
@@ -1137,7 +1133,11 @@
       <c r="D37" s="1" t="n"/>
       <c r="E37" s="1" t="n"/>
       <c r="F37" s="1" t="n"/>
-      <c r="G37" s="1" t="n"/>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>Lina Summer Camp of Music Faculty Concert</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" s="1" t="inlineStr">
@@ -1189,11 +1189,7 @@
       <c r="D41" s="1" t="n"/>
       <c r="E41" s="1" t="n"/>
       <c r="F41" s="1" t="n"/>
-      <c r="G41" s="1" t="inlineStr">
-        <is>
-          <t>After concert refreshment</t>
-        </is>
-      </c>
+      <c r="G41" s="1" t="n"/>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" s="1" t="inlineStr">
@@ -1206,7 +1202,11 @@
       <c r="D42" s="1" t="n"/>
       <c r="E42" s="1" t="n"/>
       <c r="F42" s="1" t="n"/>
-      <c r="G42" s="1" t="n"/>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>After concert refreshment</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
@@ -1221,7 +1221,7 @@
       <c r="F43" s="1" t="n"/>
       <c r="G43" s="1" t="n"/>
     </row>
-    <row r="44" ht="30" customHeight="1">
+    <row r="44" ht="15" customHeight="1">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>20:15</t>
@@ -1232,14 +1232,9 @@
       <c r="D44" s="1" t="n"/>
       <c r="E44" s="1" t="n"/>
       <c r="F44" s="1" t="n"/>
-      <c r="G44" s="1" t="inlineStr">
-        <is>
-          <t>After Concert Dinner 
-(Pheasant-Jasmine Room, Mandarin Oriental)</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" ht="15" customHeight="1">
+      <c r="G44" s="1" t="n"/>
+    </row>
+    <row r="45" ht="30" customHeight="1">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>20:30</t>
@@ -1250,7 +1245,12 @@
       <c r="D45" s="1" t="n"/>
       <c r="E45" s="1" t="n"/>
       <c r="F45" s="1" t="n"/>
-      <c r="G45" s="1" t="n"/>
+      <c r="G45" s="1" t="inlineStr">
+        <is>
+          <t>After Concert Dinner 
+(Pheasant-Jasmine Room, Mandarin Oriental)</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
@@ -1320,57 +1320,57 @@
   </sheetData>
   <mergeCells count="54">
     <mergeCell ref="C39:C50"/>
+    <mergeCell ref="G30:G32"/>
     <mergeCell ref="E23:E26"/>
+    <mergeCell ref="G21:G26"/>
     <mergeCell ref="B3:B6"/>
-    <mergeCell ref="G29:G31"/>
     <mergeCell ref="D32:D38"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="D11:D14"/>
-    <mergeCell ref="G41:G43"/>
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="D39:D50"/>
-    <mergeCell ref="G26:G28"/>
     <mergeCell ref="F39:F50"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="G3:G6"/>
+    <mergeCell ref="G7:G14"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="E15:E18"/>
     <mergeCell ref="E32:E38"/>
     <mergeCell ref="B19:B22"/>
+    <mergeCell ref="G27:G29"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G44:G50"/>
+    <mergeCell ref="G33:G36"/>
     <mergeCell ref="E27:E30"/>
     <mergeCell ref="E39:E50"/>
     <mergeCell ref="B32:B38"/>
     <mergeCell ref="D3:D6"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="G42:G44"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="D15:D18"/>
     <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G14:G19"/>
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="F27:F30"/>
     <mergeCell ref="C19:C22"/>
-    <mergeCell ref="G36:G40"/>
     <mergeCell ref="B39:B50"/>
-    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="G45:G50"/>
     <mergeCell ref="D23:D26"/>
-    <mergeCell ref="G20:G25"/>
     <mergeCell ref="C3:C6"/>
-    <mergeCell ref="G7:G13"/>
     <mergeCell ref="E3:E6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="D19:D22"/>
+    <mergeCell ref="G37:G41"/>
     <mergeCell ref="F19:F22"/>
     <mergeCell ref="F32:F38"/>
   </mergeCells>
